--- a/projects/selanik/cesme/sonolcu.xlsx
+++ b/projects/selanik/cesme/sonolcu.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aa202304\projects\selanik\cesme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DF0F10-6819-4922-8541-7FC86B2A56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D321E5-3AD9-4FDC-840D-EC6B8C8F6851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2_2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sayfa1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="113">
   <si>
     <t>X : yapılacaklar</t>
   </si>
@@ -242,9 +243,6 @@
     <t>Döşeme</t>
   </si>
   <si>
-    <t>LEDli Küpeşte</t>
-  </si>
-  <si>
     <t>Rıht 1</t>
   </si>
   <si>
@@ -309,13 +307,82 @@
   </si>
   <si>
     <t>Tundra Gri</t>
+  </si>
+  <si>
+    <t>Yol Küpeşte</t>
+  </si>
+  <si>
+    <t>rıht</t>
+  </si>
+  <si>
+    <t>Teras Rıht Pahsız</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>klnlk</t>
+  </si>
+  <si>
+    <t>klnlk cm</t>
+  </si>
+  <si>
+    <t>Basamak</t>
+  </si>
+  <si>
+    <t>Küpeşte</t>
+  </si>
+  <si>
+    <t>Tek Pah</t>
+  </si>
+  <si>
+    <t>Rıht</t>
+  </si>
+  <si>
+    <t>Ham</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Denizlik</t>
+  </si>
+  <si>
+    <t>Teras rıht tek pahlı</t>
+  </si>
+  <si>
+    <t>ADET</t>
+  </si>
+  <si>
+    <t>3 cm Toplam m2</t>
+  </si>
+  <si>
+    <t>2 cm Toplam m2</t>
+  </si>
+  <si>
+    <t>3 cm m2</t>
+  </si>
+  <si>
+    <t>2 cm m2</t>
+  </si>
+  <si>
+    <t>Toplam m2 : Basamak - Rıht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALMER </t>
+  </si>
+  <si>
+    <t>TOKAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SİYAH BAZALT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,6 +416,46 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -358,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -366,11 +473,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +548,42 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3360,10 +3540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:AB119"/>
+  <dimension ref="B3:AC136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6:AB119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3379,16 +3559,19 @@
     <col min="14" max="18" width="3.21875" style="1" customWidth="1"/>
     <col min="19" max="19" width="1.5546875" customWidth="1"/>
     <col min="20" max="20" width="5.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.77734375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.33203125" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -3443,12 +3626,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>62</v>
       </c>
@@ -3462,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -3520,8 +3703,11 @@
       <c r="V8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -3531,55 +3717,22 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T9" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U9" s="2">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -3587,528 +3740,381 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T10" s="2">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="U10" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T11" s="2">
-        <v>0.6</v>
+        <v>2.12</v>
       </c>
       <c r="U11" s="2">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="V11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="W11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T13" s="2">
-        <v>0.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="U13" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T14" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U14" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T15" s="2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="U15" s="2">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="V15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="W15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T16" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U16" s="2">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="V16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="T17" s="2">
         <v>2</v>
       </c>
       <c r="U17" s="2">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="V17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="W17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T18" s="2">
-        <v>13.5</v>
+        <v>2</v>
       </c>
       <c r="U18" s="2">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="V18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="T19" s="2">
         <v>2</v>
       </c>
       <c r="U19" s="2">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="V19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="W19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V21">
+        <v>50</v>
+      </c>
+      <c r="W21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -4135,39 +4141,42 @@
         <v>14</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T24" s="2">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="U24" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="V24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="W24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -4194,39 +4203,42 @@
         <v>14</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T25" s="2">
-        <v>1.27</v>
+        <v>0.3</v>
       </c>
       <c r="U25" s="2">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="V25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -4253,28 +4265,28 @@
         <v>14</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T26" s="2">
-        <v>11</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="U26" s="2">
         <v>0.3</v>
@@ -4282,10 +4294,13 @@
       <c r="V26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -4312,39 +4327,42 @@
         <v>14</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T27" s="2">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="U27" s="2">
         <v>0.3</v>
       </c>
       <c r="V27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="W27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -4371,39 +4389,42 @@
         <v>14</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T28" s="2">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="U28" s="2">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="V28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="W28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
@@ -4430,180 +4451,311 @@
         <v>14</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T29" s="2">
-        <v>0.51</v>
+        <v>1.2</v>
       </c>
       <c r="U29" s="2">
         <v>0.3</v>
       </c>
       <c r="V29">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-    </row>
-    <row r="35" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V33">
+        <v>18</v>
+      </c>
+      <c r="W33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V34">
+        <v>8</v>
+      </c>
+      <c r="W34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V35">
+        <v>60</v>
+      </c>
+      <c r="W35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>14</v>
@@ -4630,947 +4782,860 @@
         <v>15</v>
       </c>
       <c r="T36" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43" s="2">
+        <v>11</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V44">
+        <v>12</v>
+      </c>
+      <c r="W44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V45">
+        <v>24</v>
+      </c>
+      <c r="W45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V46">
+        <v>324</v>
+      </c>
+      <c r="W46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V47">
+        <v>24</v>
+      </c>
+      <c r="W47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+    </row>
+    <row r="52" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T53" s="2">
         <v>1.5</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U53" s="2">
         <v>3.25</v>
       </c>
-      <c r="V36">
+      <c r="V53">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="W53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T37" s="2">
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T54" s="2">
         <v>1.5</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U54" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V37">
+      <c r="V54">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="W54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T38" s="2">
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T55" s="2">
         <v>3.25</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U55" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V38">
+      <c r="V55">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="W55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T39" s="2">
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="2">
         <v>1.5</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U56" s="2">
         <v>0.17</v>
       </c>
-      <c r="V39">
+      <c r="V56">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="W56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T40" s="2">
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T57" s="2">
         <v>3.25</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U57" s="2">
         <v>0.17</v>
       </c>
-      <c r="V40">
+      <c r="V57">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+      <c r="W57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>27</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="V43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="V44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T45" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="V45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="V46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T49" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="V49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="V50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="V51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T54" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="V54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T55" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="V55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="V58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T59" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="U59" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="V59">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>14</v>
@@ -5594,42 +5659,42 @@
         <v>14</v>
       </c>
       <c r="T60" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.94</v>
       </c>
       <c r="U60" s="2">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="V60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>29</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>14</v>
@@ -5653,18 +5718,18 @@
         <v>14</v>
       </c>
       <c r="T61" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U61" s="2">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="V61">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="8" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>28</v>
@@ -5688,42 +5753,42 @@
         <v>14</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T62" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="U62" s="2">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="V62">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="8" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>28</v>
@@ -5747,182 +5812,71 @@
         <v>14</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T63" s="2">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="U63" s="2">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="V63">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="8"/>
-      <c r="C64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="V64">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T65" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="U65" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="V65">
-        <v>14</v>
+      <c r="B65" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="8" t="s">
-        <v>85</v>
+      <c r="B66" t="s">
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>14</v>
@@ -5946,39 +5900,39 @@
         <v>14</v>
       </c>
       <c r="T66" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="U66" s="2">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="V66">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="8" t="s">
-        <v>85</v>
+      <c r="B67" t="s">
+        <v>32</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>14</v>
@@ -6005,85 +5959,85 @@
         <v>14</v>
       </c>
       <c r="T67" s="2">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="U67" s="2">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="V67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B69" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V68">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T70" s="2">
-        <v>2.82</v>
-      </c>
-      <c r="U70" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="V70">
-        <v>13</v>
+      <c r="B70" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -6128,215 +6082,224 @@
         <v>14</v>
       </c>
       <c r="T71" s="2">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U71" s="2">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="V71">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T72" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="V72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T75" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V75">
         <v>13</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T72" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="U72" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="V72">
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T76" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V76">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T74" s="2">
-        <v>19</v>
-      </c>
-      <c r="U74" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="V74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>44</v>
+      <c r="B77" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>14</v>
@@ -6360,42 +6323,42 @@
         <v>14</v>
       </c>
       <c r="T77" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U77" s="2">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="V77">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>45</v>
+      <c r="B78" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>14</v>
@@ -6419,42 +6382,42 @@
         <v>14</v>
       </c>
       <c r="T78" s="2">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U78" s="2">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="V78">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>46</v>
+      <c r="B79" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>14</v>
@@ -6478,42 +6441,42 @@
         <v>14</v>
       </c>
       <c r="T79" s="2">
-        <v>0.76</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="U79" s="2">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="V79">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>47</v>
+      <c r="B80" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>14</v>
@@ -6537,42 +6500,40 @@
         <v>14</v>
       </c>
       <c r="T80" s="2">
-        <v>1.8</v>
+        <v>0.51</v>
       </c>
       <c r="U80" s="2">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="V80">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>48</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>14</v>
@@ -6596,42 +6557,42 @@
         <v>14</v>
       </c>
       <c r="T81" s="2">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U81" s="2">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="V81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>14</v>
@@ -6655,42 +6616,42 @@
         <v>14</v>
       </c>
       <c r="T82" s="2">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="U82" s="2">
-        <v>0.32</v>
+        <v>1.05</v>
       </c>
       <c r="V82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>14</v>
@@ -6714,42 +6675,42 @@
         <v>14</v>
       </c>
       <c r="T83" s="2">
-        <v>0.53</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="U83" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="V83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>14</v>
@@ -6773,511 +6734,1353 @@
         <v>14</v>
       </c>
       <c r="T84" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="V84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T87" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="U87" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V87">
+        <v>13</v>
+      </c>
+      <c r="W87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T88" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="U88" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V88">
+        <v>13</v>
+      </c>
+      <c r="W88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T89" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="V89">
+        <v>13</v>
+      </c>
+      <c r="W89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T91" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V91">
+        <v>200</v>
+      </c>
+      <c r="W91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T92" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V92">
+        <v>50</v>
+      </c>
+      <c r="W92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T94" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T95" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="U95" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T97" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="U97" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T98" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="U98" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T99" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="U99" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T100" s="2">
         <v>0.53</v>
       </c>
-      <c r="U84" s="2">
+      <c r="U100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T101" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="U101" s="2">
         <v>0.36</v>
       </c>
-      <c r="V84">
+      <c r="V101">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B103" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T104" s="2">
+        <v>4</v>
+      </c>
+      <c r="U104" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="V104">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B106" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T107" s="2">
+        <v>1</v>
+      </c>
+      <c r="U107" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="V107">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T108" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U108" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T109" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U109" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T110" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U110" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T111" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="U111" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="R112" s="8"/>
+    </row>
+    <row r="113" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" s="8"/>
+    </row>
+    <row r="114" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="R114" s="8"/>
+    </row>
+    <row r="115" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T87" s="2">
-        <v>4</v>
-      </c>
-      <c r="U87" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="V87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B89" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T90" s="2">
+      <c r="R115" s="8"/>
+    </row>
+    <row r="116" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R116" s="8"/>
+    </row>
+    <row r="117" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R117" s="8"/>
+    </row>
+    <row r="126" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AA126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Z128" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA128" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB128" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z129" s="2">
         <v>1</v>
       </c>
-      <c r="U90" s="2">
+      <c r="AA129" s="2">
         <v>0.23</v>
       </c>
-      <c r="V90">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T91" s="2">
+      <c r="AB129">
+        <v>92</v>
+      </c>
+      <c r="AC129">
+        <f>AB129*AA129*Z129</f>
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="130" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z130" s="2">
         <v>1.2</v>
       </c>
-      <c r="U91" s="2">
+      <c r="AA130" s="2">
         <v>0.25</v>
       </c>
-      <c r="V91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T92" s="2">
+      <c r="AB130">
+        <v>92</v>
+      </c>
+      <c r="AC130">
+        <f t="shared" ref="AC130:AC133" si="0">AB130*AA130*Z130</f>
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z131" s="2">
         <v>0.64</v>
       </c>
-      <c r="U92" s="2">
+      <c r="AA131" s="2">
         <v>0.35</v>
       </c>
-      <c r="V92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T93" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="U93" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="V93">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T94" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="U94" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="V94">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="R95" s="8"/>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="R96" s="8"/>
-    </row>
-    <row r="97" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="R97" s="8"/>
-    </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>87</v>
-      </c>
-      <c r="R98" s="8"/>
-    </row>
-    <row r="99" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R99" s="8"/>
-    </row>
-    <row r="100" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R100" s="8"/>
-    </row>
-    <row r="109" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="Z109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="Y111" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z111" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA111" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="Y112" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="AA112">
-        <v>92</v>
-      </c>
-      <c r="AB112">
-        <f>AA112*Z112*Y112</f>
-        <v>21.16</v>
-      </c>
-    </row>
-    <row r="113" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y113" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="Z113" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AA113">
-        <v>92</v>
-      </c>
-      <c r="AB113">
-        <f t="shared" ref="AB113:AB116" si="0">AA113*Z113*Y113</f>
-        <v>27.599999999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y114" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="Z114" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="AA114">
+      <c r="AB131">
         <v>10</v>
       </c>
-      <c r="AB114">
+      <c r="AC131">
         <f t="shared" si="0"/>
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="115" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y115" s="2">
+    <row r="132" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z132" s="2">
         <v>0.64</v>
       </c>
-      <c r="Z115" s="2">
+      <c r="AA132" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA115">
+      <c r="AB132">
         <v>10</v>
       </c>
-      <c r="AB115">
+      <c r="AC132">
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
     </row>
-    <row r="116" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="Y116" s="2">
+    <row r="133" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="Z133" s="2">
         <v>1.6</v>
       </c>
-      <c r="Z116" s="2">
+      <c r="AA133" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA116">
+      <c r="AB133">
         <v>20</v>
       </c>
-      <c r="AB116">
+      <c r="AC133">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
     </row>
-    <row r="117" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="AB117">
-        <f>SUM(AB112:AB116)</f>
+    <row r="134" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AC134">
+        <f>SUM(AC129:AC133)</f>
         <v>58.68</v>
       </c>
     </row>
-    <row r="118" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="AB118">
+    <row r="135" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AC135">
         <v>600</v>
       </c>
     </row>
-    <row r="119" spans="25:28" x14ac:dyDescent="0.3">
-      <c r="AB119">
-        <f>AB118*AB117</f>
+    <row r="136" spans="26:29" x14ac:dyDescent="0.3">
+      <c r="AC136">
+        <f>AC135*AC134</f>
         <v>35208</v>
       </c>
     </row>
@@ -7289,4 +8092,830 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ABE48-93A3-4962-8A4A-BB5D0F775B15}">
+  <dimension ref="B1:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="21"/>
+    <col min="7" max="7" width="8.88671875" style="17"/>
+    <col min="8" max="8" width="8.88671875" style="16"/>
+    <col min="9" max="9" width="3.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="L2" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <f>C4*D4*F4</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="H4" s="24">
+        <f>F4*E4*C4</f>
+        <v>0.29400000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" ref="G5:G10" si="0">C5*D5*F5</f>
+        <v>2.4</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" ref="H5:H10" si="1">F5*E5*C5</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="1"/>
+        <v>0.29680000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="20">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.61499999999999988</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="1"/>
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F8" s="21">
+        <v>32</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>21.76</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="1"/>
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9" s="21">
+        <v>8</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>5.7664000000000009</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="1"/>
+        <v>2.3744000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="20">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="21">
+        <v>8</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>5.5759999999999996</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="1"/>
+        <v>2.2959999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="28">
+        <f>SUM(G4:G10)</f>
+        <v>37.593400000000003</v>
+      </c>
+      <c r="H11" s="29">
+        <f>SUM(H4:H10)</f>
+        <v>15.6282</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="21">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17">
+        <f>F14*D14*C14</f>
+        <v>2.52</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="21">
+        <v>685</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" ref="G15:G34" si="2">F15*D15*C15</f>
+        <v>123.3</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="20">
+        <v>2</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M16" s="21">
+        <v>4</v>
+      </c>
+      <c r="N16" s="17">
+        <f>M16*L16*K16</f>
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="F17" s="21">
+        <v>60</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="2"/>
+        <v>23.4</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M17" s="21">
+        <v>18</v>
+      </c>
+      <c r="N17" s="17">
+        <f>M17*L17*K17</f>
+        <v>4.8599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="21">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="2"/>
+        <v>3.6899999999999995</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M18" s="21">
+        <v>8</v>
+      </c>
+      <c r="N18" s="17">
+        <f>M18*L18*K18</f>
+        <v>2.016</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="21">
+        <v>18</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="J19" s="20">
+        <v>2</v>
+      </c>
+      <c r="K19" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M19" s="21">
+        <v>60</v>
+      </c>
+      <c r="N19" s="17">
+        <f>M19*L19*K19</f>
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="21">
+        <v>8</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="2"/>
+        <v>3.36</v>
+      </c>
+      <c r="J20" s="20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M20" s="21">
+        <v>6</v>
+      </c>
+      <c r="N20" s="17">
+        <f>M20*L20*K20</f>
+        <v>2.214</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="20">
+        <v>3</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="21">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="2"/>
+        <v>1.44</v>
+      </c>
+      <c r="J21" s="20">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M21" s="21">
+        <v>2</v>
+      </c>
+      <c r="N21" s="17">
+        <f>M21*L21*K21</f>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="20">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="J22" s="20">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M22" s="21">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17">
+        <f>M22*L22*K22</f>
+        <v>0.45500000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
+        <v>3</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="2"/>
+        <v>0.55249999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>3</v>
+      </c>
+      <c r="C26" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="21">
+        <v>6</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="2"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="J26" s="20">
+        <v>2</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="M26" s="21">
+        <v>24</v>
+      </c>
+      <c r="N26" s="17">
+        <f>M26*L26*K26</f>
+        <v>5.3759999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <v>3</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1.27</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="21">
+        <v>6</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="2"/>
+        <v>2.2859999999999996</v>
+      </c>
+      <c r="J27" s="20">
+        <v>2</v>
+      </c>
+      <c r="K27" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="21">
+        <v>324</v>
+      </c>
+      <c r="N27" s="17">
+        <f>M27*L27*K27</f>
+        <v>49.572000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <v>3</v>
+      </c>
+      <c r="C28" s="17">
+        <v>11</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="21">
+        <v>6</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="2"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="J28" s="20">
+        <v>2</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="21">
+        <v>24</v>
+      </c>
+      <c r="N28" s="17">
+        <f>M28*L28*K28</f>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="21">
+        <v>12</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="2"/>
+        <v>2.5199999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="20">
+        <v>3</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2.82</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="F32" s="21">
+        <v>13</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="2"/>
+        <v>13.197599999999998</v>
+      </c>
+      <c r="J32" s="20">
+        <v>2</v>
+      </c>
+      <c r="K32" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M32" s="21">
+        <v>200</v>
+      </c>
+      <c r="N32" s="17">
+        <f>M32*L32*K32</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="20">
+        <v>3</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="F33" s="21">
+        <v>13</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+      <c r="J33" s="20">
+        <v>2</v>
+      </c>
+      <c r="K33" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M33" s="21">
+        <v>50</v>
+      </c>
+      <c r="N33" s="17">
+        <f>M33*L33*K33</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
+        <v>3</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1.85</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="F34" s="21">
+        <v>13</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="2"/>
+        <v>6.2530000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="28">
+        <f>SUM(G14:G35)</f>
+        <v>229.10909999999996</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" s="26"/>
+      <c r="N36" s="31">
+        <f>SUM(N14:N35)</f>
+        <v>140.41700000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="23"/>
+      <c r="J38" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/projects/selanik/cesme/sonolcu.xlsx
+++ b/projects/selanik/cesme/sonolcu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aa202304\projects\selanik\cesme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D321E5-3AD9-4FDC-840D-EC6B8C8F6851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55283786-E8E9-41CA-9FA9-73536015AA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet2_2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sayfa1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sayfa2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="124">
   <si>
     <t>X : yapılacaklar</t>
   </si>
@@ -376,13 +377,46 @@
   </si>
   <si>
     <t xml:space="preserve">SİYAH BAZALT </t>
+  </si>
+  <si>
+    <t>--------</t>
+  </si>
+  <si>
+    <t>---------</t>
+  </si>
+  <si>
+    <t>mtül</t>
+  </si>
+  <si>
+    <t>cilalı eşik  3x20</t>
+  </si>
+  <si>
+    <t>2x7</t>
+  </si>
+  <si>
+    <t>basaamak</t>
+  </si>
+  <si>
+    <t>denzlk</t>
+  </si>
+  <si>
+    <t>2 cm döşeme</t>
+  </si>
+  <si>
+    <t>3x25 cilalı parapet</t>
+  </si>
+  <si>
+    <t>traverten</t>
+  </si>
+  <si>
+    <t>2 cm traverten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,6 +490,14 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -514,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,6 +626,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3542,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AC136"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6:AB119"/>
+    <sheetView topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3551,16 +3600,13 @@
     <col min="1" max="1" width="1.21875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="2.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="2.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="2.21875" style="1" customWidth="1"/>
-    <col min="14" max="18" width="3.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.5546875" customWidth="1"/>
+    <col min="4" max="18" width="0.21875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="0.21875" customWidth="1"/>
     <col min="20" max="20" width="5.77734375" style="2" customWidth="1"/>
     <col min="21" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" customWidth="1"/>
     <col min="25" max="25" width="6.33203125" customWidth="1"/>
     <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -5253,7 +5299,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -5271,7 +5317,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="52" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>74</v>
       </c>
@@ -5294,7 +5340,7 @@
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>23</v>
       </c>
@@ -5356,7 +5402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -5418,7 +5464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -5480,7 +5526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>25</v>
       </c>
@@ -5542,7 +5588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>25</v>
       </c>
@@ -5604,12 +5650,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>27</v>
       </c>
@@ -5667,8 +5713,11 @@
       <c r="V60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>29</v>
       </c>
@@ -5726,8 +5775,11 @@
       <c r="V61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>27</v>
       </c>
@@ -5785,8 +5837,14 @@
       <c r="V62">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W62" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X62">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>29</v>
       </c>
@@ -5844,13 +5902,16 @@
       <c r="V63">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>31</v>
       </c>
@@ -5908,8 +5969,11 @@
       <c r="V66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -5967,8 +6031,14 @@
       <c r="V67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W67" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -6026,13 +6096,16 @@
       <c r="V68">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>35</v>
       </c>
@@ -6090,8 +6163,14 @@
       <c r="V71">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W71" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>35</v>
       </c>
@@ -6149,13 +6228,19 @@
       <c r="V72">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W72" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>78</v>
       </c>
@@ -6213,8 +6298,11 @@
       <c r="V75">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>79</v>
       </c>
@@ -6272,8 +6360,11 @@
       <c r="V76">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>80</v>
       </c>
@@ -6329,10 +6420,13 @@
         <v>0.13</v>
       </c>
       <c r="V77">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="W77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>80</v>
       </c>
@@ -6388,10 +6482,13 @@
         <v>0.13</v>
       </c>
       <c r="V78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
@@ -6447,10 +6544,13 @@
         <v>0.13</v>
       </c>
       <c r="V79">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -6506,6 +6606,9 @@
         <v>0.13</v>
       </c>
       <c r="V80">
+        <v>13</v>
+      </c>
+      <c r="W80" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6563,6 +6666,9 @@
         <v>0.11</v>
       </c>
       <c r="V81">
+        <v>13</v>
+      </c>
+      <c r="W81" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6622,6 +6728,9 @@
         <v>1.05</v>
       </c>
       <c r="V82">
+        <v>13</v>
+      </c>
+      <c r="W82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6681,6 +6790,9 @@
         <v>0.05</v>
       </c>
       <c r="V83">
+        <v>13</v>
+      </c>
+      <c r="W83" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6740,6 +6852,9 @@
         <v>0.05</v>
       </c>
       <c r="V84">
+        <v>13</v>
+      </c>
+      <c r="W84" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7171,6 +7286,9 @@
       <c r="V94">
         <v>7</v>
       </c>
+      <c r="W94" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
@@ -7230,6 +7348,9 @@
       <c r="V95">
         <v>7</v>
       </c>
+      <c r="W95" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
@@ -7289,8 +7410,11 @@
       <c r="V96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>47</v>
       </c>
@@ -7348,8 +7472,11 @@
       <c r="V97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>48</v>
       </c>
@@ -7407,8 +7534,11 @@
       <c r="V98">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>49</v>
       </c>
@@ -7466,8 +7596,11 @@
       <c r="V99">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>50</v>
       </c>
@@ -7525,8 +7658,11 @@
       <c r="V100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>51</v>
       </c>
@@ -7584,13 +7720,16 @@
       <c r="V101">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>35</v>
       </c>
@@ -7648,13 +7787,28 @@
       <c r="V104">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W104" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T106" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U106" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="V106" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>55</v>
       </c>
@@ -7713,7 +7867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>55</v>
       </c>
@@ -7772,7 +7926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>57</v>
       </c>
@@ -7831,7 +7985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -7890,7 +8044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>57</v>
       </c>
@@ -7949,7 +8103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R112" s="8"/>
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.3">
@@ -8086,7 +8240,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.41736111111111102" right="0.30277777777777798" top="0.55833333333333302" bottom="1.03263888888889" header="0.29305555555555601" footer="0.76736111111111105"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -8095,10 +8249,115 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238DC12-A0CE-4C95-A18B-EADD3CF8060E}">
+  <dimension ref="B6:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ABE48-93A3-4962-8A4A-BB5D0F775B15}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -8435,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="N16" s="17">
-        <f>M16*L16*K16</f>
+        <f t="shared" ref="N16:N22" si="3">M16*L16*K16</f>
         <v>0.86399999999999999</v>
       </c>
     </row>
@@ -8469,7 +8728,7 @@
         <v>18</v>
       </c>
       <c r="N17" s="17">
-        <f>M17*L17*K17</f>
+        <f t="shared" si="3"/>
         <v>4.8599999999999994</v>
       </c>
     </row>
@@ -8503,7 +8762,7 @@
         <v>8</v>
       </c>
       <c r="N18" s="17">
-        <f>M18*L18*K18</f>
+        <f t="shared" si="3"/>
         <v>2.016</v>
       </c>
     </row>
@@ -8537,7 +8796,7 @@
         <v>60</v>
       </c>
       <c r="N19" s="17">
-        <f>M19*L19*K19</f>
+        <f t="shared" si="3"/>
         <v>14.04</v>
       </c>
     </row>
@@ -8571,7 +8830,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="17">
-        <f>M20*L20*K20</f>
+        <f t="shared" si="3"/>
         <v>2.214</v>
       </c>
     </row>
@@ -8605,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="17">
-        <f>M21*L21*K21</f>
+        <f t="shared" si="3"/>
         <v>0.42000000000000004</v>
       </c>
     </row>
@@ -8639,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="17">
-        <f>M22*L22*K22</f>
+        <f t="shared" si="3"/>
         <v>0.45500000000000007</v>
       </c>
     </row>

--- a/projects/selanik/cesme/sonolcu.xlsx
+++ b/projects/selanik/cesme/sonolcu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aa202304\projects\selanik\cesme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55283786-E8E9-41CA-9FA9-73536015AA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646DA54-EFA6-4044-85A6-093CE174F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="228" windowWidth="17628" windowHeight="11880" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2_2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sayfa2" sheetId="5" r:id="rId4"/>
     <sheet name="Sayfa1" sheetId="4" r:id="rId5"/>
+    <sheet name="bazalt son" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="132">
   <si>
     <t>X : yapılacaklar</t>
   </si>
@@ -411,6 +412,30 @@
   <si>
     <t>2 cm traverten</t>
   </si>
+  <si>
+    <t>basamak</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>ebatlı 3 cm Toplam m2</t>
+  </si>
+  <si>
+    <t>serbest boy 3 cm Toplam m2</t>
+  </si>
+  <si>
+    <t>serbest boy 2 cm Toplam m2</t>
+  </si>
+  <si>
+    <t>ebatlı  2 cm Toplam m2</t>
+  </si>
+  <si>
+    <t>basamak toplam mtül</t>
+  </si>
+  <si>
+    <t>BALMER TOKAT - Atila Balcı - 532 296 3689</t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,6 +659,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3591,19 +3637,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:AC136"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W101" sqref="W101"/>
+    <sheetView topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.21875" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
-    <col min="4" max="18" width="0.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="0.21875" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.33203125" customWidth="1"/>
     <col min="23" max="23" width="6.109375" customWidth="1"/>
     <col min="24" max="24" width="5.5546875" customWidth="1"/>
@@ -8252,7 +8304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238DC12-A0CE-4C95-A18B-EADD3CF8060E}">
   <dimension ref="B6:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -9177,4 +9229,5385 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9E57E7-0378-4EEA-AE9E-DCC7FBA6A051}">
+  <dimension ref="B2:AI138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.21875" customWidth="1"/>
+    <col min="20" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC2" s="47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="AF6" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG6" s="41">
+        <v>32</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6">
+        <f>AG6*AD6</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="37">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AE7" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="AF7" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG7" s="41">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" ref="AI7:AI8" si="0">AG7*AD7</f>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="37">
+        <v>2.12</v>
+      </c>
+      <c r="AE8" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="AF8" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG8" s="41">
+        <v>8</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AH9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI9" s="44">
+        <f>SUM(AI6:AI8)</f>
+        <v>97.360000000000014</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="AF12" s="41">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="37">
+        <f>AF12*AE12*AD12</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="37">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AE13" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="AF13" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH13" s="37">
+        <f t="shared" ref="AH13:AH33" si="1">AF13*AE13*AD13</f>
+        <v>0.61499999999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="37">
+        <v>2.12</v>
+      </c>
+      <c r="AE14" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="AF14" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH14" s="37">
+        <f t="shared" si="1"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="2">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V15">
+        <v>8</v>
+      </c>
+      <c r="W15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="37">
+        <v>2.1</v>
+      </c>
+      <c r="AE15" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="AF15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH15" s="37">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="AE16" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="AF16" s="41">
+        <v>7</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH16" s="37">
+        <f t="shared" si="1"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="2">
+        <v>2</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="37">
+        <v>2.82</v>
+      </c>
+      <c r="AE17" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="AF17" s="41">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH17" s="37">
+        <f t="shared" si="1"/>
+        <v>13.197599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="2">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AE18" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="AF18" s="41">
+        <v>13</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="37">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="2">
+        <v>2</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V19">
+        <v>8</v>
+      </c>
+      <c r="W19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="37">
+        <v>1.85</v>
+      </c>
+      <c r="AE19" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="AF19" s="41">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH19" s="37">
+        <f t="shared" si="1"/>
+        <v>6.2530000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AG20" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH20" s="43">
+        <f>SUM(AH12:AH19)</f>
+        <v>38.161599999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V21">
+        <v>50</v>
+      </c>
+      <c r="W21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AH21" s="37"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="AE22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF22" s="41">
+        <v>237</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH22">
+        <f>AF22*AD22</f>
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC23" s="42">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="37">
+        <v>0.17</v>
+      </c>
+      <c r="AE23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF23" s="41">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH23">
+        <f>AF23*AD23</f>
+        <v>1.1900000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V24">
+        <v>600</v>
+      </c>
+      <c r="W24" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH24" s="44">
+        <f>SUM(AH22:AH23)</f>
+        <v>72.289999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V25">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25">
+        <f>V25*T25</f>
+        <v>78</v>
+      </c>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="41"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T26" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X29" si="2">V26*T26</f>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="AE26" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF26" s="41">
+        <v>450</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH26">
+        <f>AF26*AD26</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V27">
+        <v>18</v>
+      </c>
+      <c r="W27" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AC27" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE27" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF27" s="41">
+        <v>7</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH27">
+        <f>AF27*AD27</f>
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="W28" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH28" s="44">
+        <f>SUM(AH26:AH27)</f>
+        <v>81.98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29" t="s">
+        <v>14</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="37"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <f>SUM(X25:X29)</f>
+        <v>133.30000000000001</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z30" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="AE30" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="AF30" s="41">
+        <v>700</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH30">
+        <f>AF30*AE30*AD30</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AC31" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="AE31" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="AF31" s="41">
+        <v>4</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH31">
+        <f>AF31*AE31*AD31</f>
+        <v>0.89599999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ref="X32:X36" si="3">V32*T32</f>
+        <v>4.8</v>
+      </c>
+      <c r="AC32" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="AE32" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="AF32" s="41">
+        <v>324</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH32">
+        <f>AF32*AE32*AD32</f>
+        <v>49.572000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V33">
+        <v>18</v>
+      </c>
+      <c r="W33" t="s">
+        <v>14</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AC33" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="AE33" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="AF33" s="41">
+        <v>24</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH33">
+        <f>AF33*AE33*AD33</f>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V34">
+        <v>8</v>
+      </c>
+      <c r="W34" t="s">
+        <v>14</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>11.2</v>
+      </c>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH34" s="43">
+        <f>SUM(AH30:AH33)</f>
+        <v>181.26800000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V35">
+        <v>60</v>
+      </c>
+      <c r="W35" t="s">
+        <v>14</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36" t="s">
+        <v>14</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="3"/>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="X37">
+        <f>SUM(X32:X36)</f>
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41" t="s">
+        <v>14</v>
+      </c>
+      <c r="X41">
+        <f t="shared" ref="X41:X49" si="4">V41*T41</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42" t="s">
+        <v>14</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="4"/>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43" s="2">
+        <v>11</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43" t="s">
+        <v>101</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V44">
+        <v>12</v>
+      </c>
+      <c r="W44" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="X45">
+        <f>SUM(X41:X44)</f>
+        <v>103.62</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z45" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AA46"/>
+      <c r="AD46" s="37"/>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V47">
+        <v>24</v>
+      </c>
+      <c r="W47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="4"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="AD47" s="37"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V48">
+        <v>324</v>
+      </c>
+      <c r="W48" t="s">
+        <v>14</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="4"/>
+        <v>165.24</v>
+      </c>
+      <c r="AD48" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V49">
+        <v>24</v>
+      </c>
+      <c r="W49" t="s">
+        <v>14</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="X50">
+        <f>SUM(X47:X49)</f>
+        <v>191.64000000000001</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+    </row>
+    <row r="54" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="38"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T55" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U55" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V56">
+        <v>2</v>
+      </c>
+      <c r="W56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T57" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T59" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="V62">
+        <v>7</v>
+      </c>
+      <c r="W62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="V63">
+        <v>7</v>
+      </c>
+      <c r="W63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T64" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V64">
+        <v>6</v>
+      </c>
+      <c r="W64" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="V65">
+        <v>6</v>
+      </c>
+      <c r="W65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T68" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V68">
+        <v>7</v>
+      </c>
+      <c r="W68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V69">
+        <v>8</v>
+      </c>
+      <c r="W69" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V70">
+        <v>7</v>
+      </c>
+      <c r="W70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T73" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="V73">
+        <v>14</v>
+      </c>
+      <c r="W73" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T74" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="V74">
+        <v>14</v>
+      </c>
+      <c r="W74" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="X74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V77">
+        <v>13</v>
+      </c>
+      <c r="W77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B78" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T78" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V78">
+        <v>13</v>
+      </c>
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="V79">
+        <v>13</v>
+      </c>
+      <c r="W79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="V80">
+        <v>13</v>
+      </c>
+      <c r="W80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T81" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="V81">
+        <v>13</v>
+      </c>
+      <c r="W81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="V82">
+        <v>13</v>
+      </c>
+      <c r="W82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B83" s="8"/>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="V83">
+        <v>13</v>
+      </c>
+      <c r="W83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U84" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="V84">
+        <v>13</v>
+      </c>
+      <c r="W84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T85" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="V85">
+        <v>13</v>
+      </c>
+      <c r="W85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T86" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="V86">
+        <v>13</v>
+      </c>
+      <c r="W86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC88" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T89" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V89">
+        <v>13</v>
+      </c>
+      <c r="W89" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z89">
+        <v>3</v>
+      </c>
+      <c r="AA89" s="37">
+        <v>2.82</v>
+      </c>
+      <c r="AB89" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="AC89" s="37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T90" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="U90" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V90">
+        <v>13</v>
+      </c>
+      <c r="W90" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z90">
+        <v>3</v>
+      </c>
+      <c r="AA90" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="AB90" s="37">
+        <v>0.36</v>
+      </c>
+      <c r="AC90" s="37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T91" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="V91">
+        <v>13</v>
+      </c>
+      <c r="W91" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z91">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="37">
+        <v>1.85</v>
+      </c>
+      <c r="AB91" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="AC91" s="37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z92"/>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T93" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="U93" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V93">
+        <v>200</v>
+      </c>
+      <c r="W93" t="s">
+        <v>14</v>
+      </c>
+      <c r="X93">
+        <f>V93*T93</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V94">
+        <v>50</v>
+      </c>
+      <c r="W94" t="s">
+        <v>14</v>
+      </c>
+      <c r="X94">
+        <f>V94*T94</f>
+        <v>60</v>
+      </c>
+      <c r="AC94" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z95">
+        <v>2</v>
+      </c>
+      <c r="AA95" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="AB95" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC95" s="37">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V96">
+        <v>7</v>
+      </c>
+      <c r="W96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="U97" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V97">
+        <v>7</v>
+      </c>
+      <c r="W97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T98" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="U98" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V98">
+        <v>7</v>
+      </c>
+      <c r="W98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="U99" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V99">
+        <v>7</v>
+      </c>
+      <c r="W99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T100" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="U100" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V100">
+        <v>7</v>
+      </c>
+      <c r="W100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T101" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="U101" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V101">
+        <v>7</v>
+      </c>
+      <c r="W101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T102" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="U102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V102">
+        <v>7</v>
+      </c>
+      <c r="W102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T103" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="U103" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V103">
+        <v>7</v>
+      </c>
+      <c r="W103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B105" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T106" s="2">
+        <v>4</v>
+      </c>
+      <c r="U106" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="V106">
+        <v>14</v>
+      </c>
+      <c r="W106" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T108" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U108" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="V108" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T109" s="2">
+        <v>1</v>
+      </c>
+      <c r="U109" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="V109">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T110" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U110" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V110">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T111" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U111" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U112" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T113" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="U113" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="R114" s="8"/>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="R115" s="8"/>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="R116" s="8"/>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="R117" s="8"/>
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="R118" s="8"/>
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="R119" s="8"/>
+    </row>
+    <row r="128" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AA128" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z130" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA130" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB130" s="39"/>
+      <c r="AC130" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z131" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA131" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="AC131" s="37">
+        <v>92</v>
+      </c>
+      <c r="AD131">
+        <f>AC131*AA131*Z131</f>
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="132" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z132" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="AA132" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="AC132" s="37">
+        <v>92</v>
+      </c>
+      <c r="AD132">
+        <f t="shared" ref="AD132:AD135" si="5">AC132*AA132*Z132</f>
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z133" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="AA133" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="AC133" s="37">
+        <v>10</v>
+      </c>
+      <c r="AD133">
+        <f t="shared" si="5"/>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z134" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="AA134" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="AC134" s="37">
+        <v>10</v>
+      </c>
+      <c r="AD134">
+        <f t="shared" si="5"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="135" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z135" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AA135" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="AC135" s="37">
+        <v>20</v>
+      </c>
+      <c r="AD135">
+        <f t="shared" si="5"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="136" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="AD136">
+        <f>SUM(AD131:AD135)</f>
+        <v>58.68</v>
+      </c>
+    </row>
+    <row r="137" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="AD137">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="AD138">
+        <f>AD137*AD136</f>
+        <v>35208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.41736111111111102" right="0.30277777777777798" top="0.55833333333333302" bottom="1.03263888888889" header="0.29305555555555601" footer="0.76736111111111105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/projects/selanik/cesme/sonolcu.xlsx
+++ b/projects/selanik/cesme/sonolcu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aa202304\projects\selanik\cesme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646DA54-EFA6-4044-85A6-093CE174F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA32AF47-24F0-46B4-B7FC-B56165FA9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="228" windowWidth="17628" windowHeight="11880" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2_2" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Sayfa2" sheetId="5" r:id="rId4"/>
     <sheet name="Sayfa1" sheetId="4" r:id="rId5"/>
     <sheet name="bazalt son" sheetId="6" r:id="rId6"/>
+    <sheet name="denizlik mtül" sheetId="7" r:id="rId7"/>
+    <sheet name="küpeşte mtül" sheetId="8" r:id="rId8"/>
+    <sheet name="doseme m2" sheetId="9" r:id="rId9"/>
+    <sheet name="basamak mtül" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="138">
   <si>
     <t>X : yapılacaklar</t>
   </si>
@@ -436,12 +440,30 @@
   <si>
     <t>BALMER TOKAT - Atila Balcı - 532 296 3689</t>
   </si>
+  <si>
+    <t>1-7 nolu dairelerde Toplam basamak mtül</t>
+  </si>
+  <si>
+    <t>Giriş Kat Teras</t>
+  </si>
+  <si>
+    <t>sadece üst sıra dairelerde</t>
+  </si>
+  <si>
+    <t>Tüm dairelerde</t>
+  </si>
+  <si>
+    <t>toplam mtül</t>
+  </si>
+  <si>
+    <t>toplam küpeşte mtül</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -523,6 +545,19 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -581,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +715,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,22 +1047,22 @@
       <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="5" width="2.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="1" customWidth="1"/>
-    <col min="7" max="13" width="2.21875" style="1" customWidth="1"/>
-    <col min="14" max="18" width="3.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" style="1"/>
-    <col min="20" max="20" width="5.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" style="2" customWidth="1"/>
-    <col min="22" max="23" width="6.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="5" width="2.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="1" customWidth="1"/>
+    <col min="7" max="13" width="2.28515625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="3.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="1"/>
+    <col min="20" max="20" width="5.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="6.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -1099,12 +1146,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1273,7 +1320,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>45.885000000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -1558,7 +1605,7 @@
         <v>73.5</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1668,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1731,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1747,19 +1794,19 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W18" s="4">
         <f>SUM(W7:W17)</f>
         <v>128.33000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="W19"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1822,7 +1869,7 @@
         <v>4.0949999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -1885,18 +1932,18 @@
         <v>3.2110000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W22" s="4">
         <f>SUM(W20:W21)</f>
         <v>7.306</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +2006,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -2022,7 +2069,7 @@
         <v>1.1088</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -2085,19 +2132,19 @@
         <v>0.7056</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W27" s="4">
         <f>SUM(W24:W26)</f>
         <v>4.2713999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="W28"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2160,7 +2207,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>35</v>
       </c>
@@ -2223,7 +2270,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -2286,7 +2333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="T32"/>
       <c r="U32"/>
       <c r="W32" s="4">
@@ -2294,12 +2341,12 @@
         <v>95.83</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -2362,7 +2409,7 @@
         <v>14.212799999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -2425,7 +2472,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>40</v>
       </c>
@@ -2488,7 +2535,7 @@
         <v>6.7340000000000009</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -2539,7 +2586,7 @@
       </c>
       <c r="W37"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>42</v>
       </c>
@@ -2602,18 +2649,18 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W39" s="4">
         <f>SUM(W34:W38)</f>
         <v>83.946799999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>44</v>
       </c>
@@ -2676,7 +2723,7 @@
         <v>0.6804</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>45</v>
       </c>
@@ -2739,7 +2786,7 @@
         <v>0.6804</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
@@ -2802,7 +2849,7 @@
         <v>1.8619999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
@@ -2865,7 +2912,7 @@
         <v>4.4099999999999993</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>48</v>
       </c>
@@ -2928,7 +2975,7 @@
         <v>1.6351999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>49</v>
       </c>
@@ -2991,7 +3038,7 @@
         <v>1.6351999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>50</v>
       </c>
@@ -3054,7 +3101,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -3117,13 +3164,13 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W49" s="4">
         <f>SUM(W41:W48)</f>
         <v>14.613199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
@@ -3140,7 +3187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3250,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -3266,7 +3313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>57</v>
       </c>
@@ -3329,7 +3376,7 @@
         <v>6.9120000000000008</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -3392,13 +3439,13 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W55" s="4">
         <f>SUM(W51:W54)</f>
         <v>56.628</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
@@ -3416,7 +3463,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>W18</f>
         <v>128.33000000000001</v>
@@ -3440,7 +3487,7 @@
         <v>9166.4285714285725</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>W22</f>
         <v>7.306</v>
@@ -3464,7 +3511,7 @@
         <v>260.92857142857144</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>W27</f>
         <v>4.2713999999999999</v>
@@ -3488,7 +3535,7 @@
         <v>6845</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>W32</f>
         <v>95.83</v>
@@ -3512,7 +3559,7 @@
         <v>152.54999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>W39</f>
         <v>83.946799999999996</v>
@@ -3536,7 +3583,7 @@
         <v>152.54999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>W49</f>
         <v>14.613199999999999</v>
@@ -3560,7 +3607,7 @@
         <v>1043.8</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <f>W55</f>
         <v>56.628</v>
@@ -3584,33 +3631,269 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R64" s="8"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="18:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R65" s="8"/>
       <c r="S65" s="5">
         <f>SUM(S56:S64)</f>
         <v>70767.257142857154</v>
       </c>
     </row>
-    <row r="66" spans="18:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R66" s="8"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="18:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R67" s="8"/>
     </row>
-    <row r="68" spans="18:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R68" s="8"/>
     </row>
-    <row r="69" spans="18:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="18:19" x14ac:dyDescent="0.25">
       <c r="R69" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFCD431-1326-48A1-A879-F8CBCF2AD78F}">
+  <dimension ref="B2:AI12"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.28515625" customWidth="1"/>
+    <col min="20" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AC2" s="47"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="41"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="41"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="41"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f>T9*V9</f>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="44"/>
+    </row>
+    <row r="10" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <f>T10*V10</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" s="48">
+        <f>SUM(X9:X10)</f>
+        <v>18</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="41"/>
+      <c r="AH12" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.41736111111111102" right="0.30277777777777798" top="0.55833333333333302" bottom="1.03263888888889" header="0.29305555555555601" footer="0.76736111111111105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -3626,7 +3909,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3641,35 +3924,35 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
     <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.21875" customWidth="1"/>
-    <col min="20" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.28515625" customWidth="1"/>
+    <col min="20" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3680,7 +3963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -3724,12 +4007,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>62</v>
       </c>
@@ -3743,7 +4026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -3805,7 +4088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -3828,7 +4111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>63</v>
       </c>
@@ -3851,7 +4134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -3874,7 +4157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>63</v>
       </c>
@@ -3897,7 +4180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -3920,7 +4203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -3943,7 +4226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>63</v>
       </c>
@@ -3966,7 +4249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -3989,7 +4272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>63</v>
       </c>
@@ -4012,7 +4295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -4035,7 +4318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -4058,7 +4341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>63</v>
       </c>
@@ -4081,7 +4364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
@@ -4143,7 +4426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
       </c>
@@ -4205,12 +4488,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -4272,7 +4555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>90</v>
       </c>
@@ -4334,7 +4617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>90</v>
       </c>
@@ -4396,7 +4679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>90</v>
       </c>
@@ -4458,7 +4741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>90</v>
       </c>
@@ -4520,7 +4803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>90</v>
       </c>
@@ -4582,7 +4865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>68</v>
       </c>
@@ -4644,7 +4927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>69</v>
       </c>
@@ -4706,7 +4989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -4768,7 +5051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -4830,7 +5113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>72</v>
       </c>
@@ -4892,12 +5175,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -4959,7 +5242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -5021,7 +5304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>21</v>
       </c>
@@ -5083,7 +5366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -5145,7 +5428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -5207,7 +5490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -5269,7 +5552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -5331,7 +5614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -5351,7 +5634,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -5369,7 +5652,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="52" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>74</v>
       </c>
@@ -5392,7 +5675,7 @@
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>23</v>
       </c>
@@ -5454,7 +5737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -5516,7 +5799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -5578,7 +5861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>25</v>
       </c>
@@ -5640,7 +5923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>25</v>
       </c>
@@ -5702,12 +5985,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>27</v>
       </c>
@@ -5769,7 +6052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>29</v>
       </c>
@@ -5831,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>27</v>
       </c>
@@ -5896,7 +6179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>29</v>
       </c>
@@ -5958,12 +6241,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>31</v>
       </c>
@@ -6025,7 +6308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>32</v>
       </c>
@@ -6090,7 +6373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -6152,12 +6435,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>35</v>
       </c>
@@ -6222,7 +6505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>35</v>
       </c>
@@ -6287,12 +6570,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>78</v>
       </c>
@@ -6354,7 +6637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>79</v>
       </c>
@@ -6416,7 +6699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>80</v>
       </c>
@@ -6478,7 +6761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>80</v>
       </c>
@@ -6540,7 +6823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
@@ -6602,7 +6885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -6664,7 +6947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
         <v>28</v>
@@ -6724,7 +7007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>83</v>
       </c>
@@ -6786,7 +7069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>84</v>
       </c>
@@ -6848,7 +7131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>84</v>
       </c>
@@ -6910,12 +7193,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>38</v>
       </c>
@@ -6977,7 +7260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>39</v>
       </c>
@@ -7039,7 +7322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>40</v>
       </c>
@@ -7101,7 +7384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>41</v>
       </c>
@@ -7151,7 +7434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>42</v>
       </c>
@@ -7213,7 +7496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>92</v>
       </c>
@@ -7275,12 +7558,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>44</v>
       </c>
@@ -7342,7 +7625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>45</v>
       </c>
@@ -7404,7 +7687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>46</v>
       </c>
@@ -7466,7 +7749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>47</v>
       </c>
@@ -7528,7 +7811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>48</v>
       </c>
@@ -7590,7 +7873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>49</v>
       </c>
@@ -7652,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>50</v>
       </c>
@@ -7714,7 +7997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>51</v>
       </c>
@@ -7776,12 +8059,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>35</v>
       </c>
@@ -7846,7 +8129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>52</v>
       </c>
@@ -7860,7 +8143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>55</v>
       </c>
@@ -7919,7 +8202,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>55</v>
       </c>
@@ -7978,7 +8261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>57</v>
       </c>
@@ -8037,7 +8320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -8096,7 +8379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>57</v>
       </c>
@@ -8155,39 +8438,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="R112" s="8"/>
     </row>
-    <row r="113" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="R113" s="8"/>
     </row>
-    <row r="114" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>2</v>
       </c>
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>86</v>
       </c>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:28" x14ac:dyDescent="0.25">
       <c r="R117" s="8"/>
     </row>
-    <row r="126" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:28" x14ac:dyDescent="0.25">
       <c r="AA126" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Z128" s="15" t="s">
         <v>87</v>
       </c>
@@ -8198,7 +8481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z129" s="2">
         <v>1</v>
       </c>
@@ -8213,7 +8496,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="130" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z130" s="2">
         <v>1.2</v>
       </c>
@@ -8228,7 +8511,7 @@
         <v>27.599999999999998</v>
       </c>
     </row>
-    <row r="131" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z131" s="2">
         <v>0.64</v>
       </c>
@@ -8243,7 +8526,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="132" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z132" s="2">
         <v>0.64</v>
       </c>
@@ -8258,7 +8541,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="133" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="26:29" x14ac:dyDescent="0.25">
       <c r="Z133" s="2">
         <v>1.6</v>
       </c>
@@ -8273,18 +8556,18 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="134" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="26:29" x14ac:dyDescent="0.25">
       <c r="AC134">
         <f>SUM(AC129:AC133)</f>
         <v>58.68</v>
       </c>
     </row>
-    <row r="135" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="26:29" x14ac:dyDescent="0.25">
       <c r="AC135">
         <v>600</v>
       </c>
     </row>
-    <row r="136" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="26:29" x14ac:dyDescent="0.25">
       <c r="AC136">
         <f>AC135*AC134</f>
         <v>35208</v>
@@ -8308,9 +8591,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>116</v>
       </c>
@@ -8321,7 +8604,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>117</v>
       </c>
@@ -8332,7 +8615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>118</v>
       </c>
@@ -8343,7 +8626,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -8354,7 +8637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -8365,7 +8648,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -8373,12 +8656,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>123</v>
       </c>
@@ -8389,7 +8672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>122</v>
       </c>
@@ -8413,25 +8696,25 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="21"/>
-    <col min="7" max="7" width="8.88671875" style="17"/>
-    <col min="8" max="8" width="8.88671875" style="16"/>
-    <col min="9" max="9" width="3.6640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="5.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="8.85546875" style="17"/>
+    <col min="8" max="8" width="8.85546875" style="16"/>
+    <col min="9" max="9" width="3.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="F1" s="33" t="s">
         <v>112</v>
       </c>
@@ -8439,7 +8722,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>96</v>
       </c>
@@ -8450,7 +8733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>95</v>
       </c>
@@ -8473,7 +8756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="20">
         <v>3</v>
       </c>
@@ -8498,7 +8781,7 @@
         <v>0.29400000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <v>3</v>
       </c>
@@ -8523,7 +8806,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <v>3</v>
       </c>
@@ -8548,7 +8831,7 @@
         <v>0.29680000000000006</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
         <v>3</v>
       </c>
@@ -8573,7 +8856,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>3</v>
       </c>
@@ -8598,7 +8881,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <v>3</v>
       </c>
@@ -8623,7 +8906,7 @@
         <v>2.3744000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20">
         <v>3</v>
       </c>
@@ -8648,7 +8931,7 @@
         <v>2.2959999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -8664,12 +8947,12 @@
         <v>15.6282</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <v>3</v>
       </c>
@@ -8702,7 +8985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <v>2</v>
       </c>
@@ -8726,7 +9009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>97</v>
       </c>
@@ -8750,7 +9033,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>3</v>
       </c>
@@ -8784,7 +9067,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>3</v>
       </c>
@@ -8818,7 +9101,7 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>3</v>
       </c>
@@ -8852,7 +9135,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -8886,7 +9169,7 @@
         <v>2.214</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>3</v>
       </c>
@@ -8920,7 +9203,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>3</v>
       </c>
@@ -8954,7 +9237,7 @@
         <v>0.45500000000000007</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>3</v>
       </c>
@@ -8972,7 +9255,7 @@
         <v>0.55249999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>21</v>
       </c>
@@ -8980,7 +9263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>3</v>
       </c>
@@ -9014,7 +9297,7 @@
         <v>5.3759999999999994</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>3</v>
       </c>
@@ -9048,7 +9331,7 @@
         <v>49.572000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>3</v>
       </c>
@@ -9082,7 +9365,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>3</v>
       </c>
@@ -9100,7 +9383,7 @@
         <v>2.5199999999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>102</v>
       </c>
@@ -9109,7 +9392,7 @@
       </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>3</v>
       </c>
@@ -9143,7 +9426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>3</v>
       </c>
@@ -9177,7 +9460,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>3</v>
       </c>
@@ -9195,8 +9478,8 @@
         <v>6.2530000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="25"/>
       <c r="E36" s="26"/>
       <c r="F36" s="27" t="s">
@@ -9219,7 +9502,7 @@
         <v>140.41700000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="23"/>
@@ -9235,47 +9518,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9E57E7-0378-4EEA-AE9E-DCC7FBA6A051}">
   <dimension ref="B2:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T103" activeCellId="13" sqref="T62:T65 T68 T70 T89 T90 T91 T96 T97 T98 T99 T100 T101 T102 T103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
     <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.21875" customWidth="1"/>
-    <col min="20" max="21" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" customWidth="1"/>
-    <col min="24" max="24" width="5.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.28515625" customWidth="1"/>
+    <col min="20" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="AC2" s="47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9293,7 +9576,7 @@
       <c r="AF4" s="37"/>
       <c r="AG4" s="37"/>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -9354,7 +9637,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -9381,7 +9664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>62</v>
       </c>
@@ -9417,7 +9700,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -9504,7 +9787,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -9540,7 +9823,7 @@
         <v>97.360000000000014</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>63</v>
       </c>
@@ -9566,7 +9849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -9606,7 +9889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>63</v>
       </c>
@@ -9651,7 +9934,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -9692,11 +9975,11 @@
         <v>9</v>
       </c>
       <c r="AH13" s="37">
-        <f t="shared" ref="AH13:AH33" si="1">AF13*AE13*AD13</f>
+        <f t="shared" ref="AH13:AH19" si="1">AF13*AE13*AD13</f>
         <v>0.61499999999999988</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -9741,7 +10024,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>63</v>
       </c>
@@ -9786,7 +10069,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -9831,7 +10114,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>63</v>
       </c>
@@ -9876,7 +10159,7 @@
         <v>13.197599999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -9921,7 +10204,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
@@ -9966,7 +10249,7 @@
         <v>6.2530000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>63</v>
       </c>
@@ -10002,7 +10285,7 @@
         <v>38.161599999999993</v>
       </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
@@ -10072,7 +10355,7 @@
       <c r="AF21" s="37"/>
       <c r="AH21" s="37"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>65</v>
       </c>
@@ -10156,7 +10439,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>66</v>
       </c>
@@ -10180,7 +10463,7 @@
         <v>1.1900000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -10256,7 +10539,7 @@
         <v>72.289999999999992</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>90</v>
       </c>
@@ -10326,7 +10609,7 @@
       <c r="AE25" s="37"/>
       <c r="AF25" s="41"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>90</v>
       </c>
@@ -10411,7 +10694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>90</v>
       </c>
@@ -10496,7 +10779,7 @@
         <v>0.98000000000000009</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>90</v>
       </c>
@@ -10573,7 +10856,7 @@
         <v>81.98</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>90</v>
       </c>
@@ -10641,7 +10924,7 @@
       <c r="AC29" s="40"/>
       <c r="AD29" s="37"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="X30">
         <f>SUM(X25:X29)</f>
         <v>133.30000000000001</v>
@@ -10672,7 +10955,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AC31" s="42">
         <v>2</v>
       </c>
@@ -10693,7 +10976,7 @@
         <v>0.89599999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>68</v>
       </c>
@@ -10778,7 +11061,7 @@
         <v>49.572000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>69</v>
       </c>
@@ -10863,7 +11146,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -10940,7 +11223,7 @@
         <v>181.26800000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -11006,7 +11289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>72</v>
       </c>
@@ -11072,18 +11355,18 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="X37">
         <f>SUM(X32:X36)</f>
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -11149,7 +11432,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -11215,7 +11498,7 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>21</v>
       </c>
@@ -11281,7 +11564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -11347,7 +11630,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="X45">
         <f>SUM(X41:X44)</f>
         <v>103.62</v>
@@ -11359,11 +11642,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="AA46"/>
       <c r="AD46" s="37"/>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -11430,7 +11713,7 @@
       </c>
       <c r="AD47" s="37"/>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>22</v>
       </c>
@@ -11499,7 +11782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -11565,7 +11848,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -11592,7 +11875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -11610,7 +11893,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="54" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>74</v>
       </c>
@@ -11637,7 +11920,7 @@
       <c r="AB54" s="38"/>
       <c r="AC54" s="38"/>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>23</v>
       </c>
@@ -11699,7 +11982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>24</v>
       </c>
@@ -11761,7 +12044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -11823,7 +12106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>25</v>
       </c>
@@ -11885,7 +12168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -11947,12 +12230,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>27</v>
       </c>
@@ -12014,7 +12297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>29</v>
       </c>
@@ -12076,7 +12359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>27</v>
       </c>
@@ -12141,7 +12424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>29</v>
       </c>
@@ -12203,12 +12486,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>31</v>
       </c>
@@ -12270,7 +12553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>32</v>
       </c>
@@ -12335,7 +12618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>33</v>
       </c>
@@ -12397,12 +12680,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>35</v>
       </c>
@@ -12467,7 +12750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>35</v>
       </c>
@@ -12532,12 +12815,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>78</v>
       </c>
@@ -12599,7 +12882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>79</v>
       </c>
@@ -12661,7 +12944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>80</v>
       </c>
@@ -12723,7 +13006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
@@ -12785,7 +13068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>81</v>
       </c>
@@ -12847,7 +13130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>82</v>
       </c>
@@ -12909,7 +13192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="1" t="s">
         <v>28</v>
@@ -12969,7 +13252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>83</v>
       </c>
@@ -13031,7 +13314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>84</v>
       </c>
@@ -13093,7 +13376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
@@ -13155,7 +13438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>37</v>
       </c>
@@ -13166,7 +13449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>38</v>
       </c>
@@ -13240,7 +13523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>39</v>
       </c>
@@ -13314,7 +13597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>40</v>
       </c>
@@ -13388,7 +13671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>41</v>
       </c>
@@ -13439,7 +13722,7 @@
       </c>
       <c r="Z92"/>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>42</v>
       </c>
@@ -13505,7 +13788,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>92</v>
       </c>
@@ -13574,7 +13857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>43</v>
       </c>
@@ -13591,7 +13874,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>44</v>
       </c>
@@ -13653,7 +13936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>45</v>
       </c>
@@ -13715,7 +13998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>46</v>
       </c>
@@ -13777,7 +14060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>47</v>
       </c>
@@ -13839,7 +14122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>48</v>
       </c>
@@ -13901,7 +14184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -13963,7 +14246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>50</v>
       </c>
@@ -14025,7 +14308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>51</v>
       </c>
@@ -14087,12 +14370,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>35</v>
       </c>
@@ -14157,7 +14440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>52</v>
       </c>
@@ -14171,7 +14454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>55</v>
       </c>
@@ -14230,7 +14513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>55</v>
       </c>
@@ -14289,7 +14572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>57</v>
       </c>
@@ -14348,7 +14631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>57</v>
       </c>
@@ -14407,7 +14690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>57</v>
       </c>
@@ -14466,39 +14749,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R114" s="8"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>0</v>
       </c>
       <c r="R115" s="8"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>2</v>
       </c>
       <c r="R116" s="8"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>86</v>
       </c>
       <c r="R117" s="8"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R118" s="8"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="R119" s="8"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA128" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z130" s="39" t="s">
         <v>87</v>
       </c>
@@ -14510,7 +14793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z131" s="37">
         <v>1</v>
       </c>
@@ -14525,7 +14808,7 @@
         <v>21.16</v>
       </c>
     </row>
-    <row r="132" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z132" s="37">
         <v>1.2</v>
       </c>
@@ -14540,7 +14823,7 @@
         <v>27.599999999999998</v>
       </c>
     </row>
-    <row r="133" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z133" s="37">
         <v>0.64</v>
       </c>
@@ -14555,7 +14838,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="134" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z134" s="37">
         <v>0.64</v>
       </c>
@@ -14570,7 +14853,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="135" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z135" s="37">
         <v>1.6</v>
       </c>
@@ -14585,21 +14868,3580 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="136" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="26:30" x14ac:dyDescent="0.25">
       <c r="AD136">
         <f>SUM(AD131:AD135)</f>
         <v>58.68</v>
       </c>
     </row>
-    <row r="137" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="26:30" x14ac:dyDescent="0.25">
       <c r="AD137">
         <v>600</v>
       </c>
     </row>
-    <row r="138" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="26:30" x14ac:dyDescent="0.25">
       <c r="AD138">
         <f>AD137*AD136</f>
         <v>35208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.41736111111111102" right="0.30277777777777798" top="0.55833333333333302" bottom="1.03263888888889" header="0.29305555555555601" footer="0.76736111111111105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B41065-5C2C-4BBD-8130-33F4DB274607}">
+  <dimension ref="B2:AI53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.28515625" customWidth="1"/>
+    <col min="20" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AC2" s="47"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" spans="2:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1">
+        <v>14</v>
+      </c>
+      <c r="X5" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="X7" s="2">
+        <f>T7</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="X8" s="2">
+        <f>T8</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" ref="X9:X26" si="0">T11</f>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <f>T15</f>
+        <v>2.82</v>
+      </c>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <f>T16</f>
+        <v>2.5</v>
+      </c>
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="V17">
+        <v>13</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
+        <f>T17</f>
+        <v>1.85</v>
+      </c>
+      <c r="Z17"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Z18"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="V20">
+        <v>7</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="W28" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="X28" s="50">
+        <f>SUM(X8:X27)</f>
+        <v>9.2499999999999982</v>
+      </c>
+      <c r="Y28" s="50">
+        <f>SUM(Y15:Y27)</f>
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="W29" s="34"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+    </row>
+    <row r="36" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+    </row>
+    <row r="37" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="8"/>
+      <c r="S37"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+    </row>
+    <row r="38" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="8"/>
+      <c r="S38"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+    </row>
+    <row r="39" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="8"/>
+      <c r="S39"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+    </row>
+    <row r="40" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="8"/>
+      <c r="S40"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+    </row>
+    <row r="41" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="8"/>
+      <c r="S41"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+    </row>
+    <row r="42" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="8"/>
+      <c r="S42"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+    </row>
+    <row r="51" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.41736111111111102" right="0.30277777777777798" top="0.55833333333333302" bottom="1.03263888888889" header="0.29305555555555601" footer="0.76736111111111105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6050154F-A2EE-472B-A19F-A1CEE54D73F7}">
+  <dimension ref="B2:AI53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.28515625" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AC2" s="47"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="41"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="41"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2">
+        <v>13</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X8" s="2">
+        <f>T8</f>
+        <v>13</v>
+      </c>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="41"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" ref="X9:X31" si="0">T9</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="41"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="X10" s="2">
+        <f>T10*V10</f>
+        <v>3</v>
+      </c>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="41"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2">
+        <f>T11*V11</f>
+        <v>2.8</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="44"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="37"/>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
+        <v>11</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="X17" s="2">
+        <f>T17*V17</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="W20" s="34"/>
+      <c r="X20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="W21" s="34"/>
+      <c r="X21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="2">
+        <v>4</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="W24" s="34"/>
+      <c r="X24" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="2">
+        <v>10</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="2">
+        <v>12</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31"/>
+      <c r="T31" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="Y31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+    </row>
+    <row r="32" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="8"/>
+      <c r="S32"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+    </row>
+    <row r="33" spans="2:35" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="8"/>
+      <c r="S33"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="X33" s="55">
+        <f>SUM(X8:X32)</f>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="Y33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+    </row>
+    <row r="34" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="8"/>
+      <c r="S34"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+    </row>
+    <row r="35" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="8"/>
+      <c r="S35"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+    </row>
+    <row r="36" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="8"/>
+      <c r="S36"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+    </row>
+    <row r="37" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="8"/>
+      <c r="S37"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+    </row>
+    <row r="46" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="AA46" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="Z48" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA48" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+    </row>
+    <row r="49" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z49" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="37">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="50" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z50" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="AA50" s="37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z51" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="AA51" s="37">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z52" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="AA52" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z53" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AA53" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.41736111111111102" right="0.30277777777777798" top="0.55833333333333302" bottom="1.03263888888889" header="0.29305555555555601" footer="0.76736111111111105"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03D9EA9-62C2-4315-A2A7-300883C5555C}">
+  <dimension ref="B2:AI34"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.28515625" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AC2" s="47"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="N4"/>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="41"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V7">
+        <v>50</v>
+      </c>
+      <c r="W7">
+        <f>T7*U7*V7</f>
+        <v>9</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AH7" s="37"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f>T8*U8*V8</f>
+        <v>0.36</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="41"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="41"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10">
+        <f>T10*U10*V10</f>
+        <v>18</v>
+      </c>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="44"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <f>SUM(W7:W11)</f>
+        <v>27.36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="8"/>
+      <c r="S13"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+    </row>
+    <row r="14" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="8"/>
+      <c r="S14"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+    </row>
+    <row r="15" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="8"/>
+      <c r="S15"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+    </row>
+    <row r="16" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="8"/>
+      <c r="S16"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+    </row>
+    <row r="17" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="8"/>
+      <c r="S17"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+    </row>
+    <row r="18" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="8"/>
+      <c r="S18"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+    </row>
+    <row r="27" spans="2:35" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="AA27" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="Z29" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA29" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="Z30" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="37">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="Z31" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="AA31" s="37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="Z32" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="AA32" s="37">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z33" s="37">
+        <v>0.64</v>
+      </c>
+      <c r="AA33" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z34" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AA34" s="37">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
